--- a/storage/excel/test_upload.xlsx
+++ b/storage/excel/test_upload.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>no_ti2004_te1</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>อนุวัฒน์ จันทะเล็ก</t>
+  </si>
+  <si>
+    <t>น่าน</t>
   </si>
 </sst>
 </file>
@@ -543,13 +546,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" customWidth="1"/>
+    <col min="16" max="16" width="27.42578125" customWidth="1"/>
     <col min="18" max="18" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="21.5703125" bestFit="1" customWidth="1"/>
@@ -742,8 +748,8 @@
       <c r="N3" t="s">
         <v>46</v>
       </c>
-      <c r="P3" t="s">
-        <v>51</v>
+      <c r="P3">
+        <v>2134</v>
       </c>
       <c r="Q3" t="s">
         <v>52</v>
@@ -805,7 +811,7 @@
         <v>50</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s">
         <v>51</v>

--- a/storage/excel/test_upload.xlsx
+++ b/storage/excel/test_upload.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>no_ti2004_te1</t>
   </si>
@@ -202,9 +202,6 @@
   </si>
   <si>
     <t>อนุวัฒน์ จันทะเล็ก</t>
-  </si>
-  <si>
-    <t>น่าน</t>
   </si>
 </sst>
 </file>
@@ -547,7 +544,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,8 +745,8 @@
       <c r="N3" t="s">
         <v>46</v>
       </c>
-      <c r="P3">
-        <v>2134</v>
+      <c r="P3" t="s">
+        <v>51</v>
       </c>
       <c r="Q3" t="s">
         <v>52</v>
@@ -811,7 +808,7 @@
         <v>50</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="P4" t="s">
         <v>51</v>
